--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harjeet Singh\Downloads\tx_automate_java-Develop\tx_automate_java-Develop\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harjeet Singh\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2C7DFD-9275-4588-8F28-EFD393E591C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A415E0C-B936-405F-9CA8-F462F1595BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>BROWSER</t>
   </si>
   <si>
-    <t>CHROME</t>
-  </si>
-  <si>
     <t>Edge browser is available only on WINDOWS_10.
 Safari browser is available only for MAC OS Type.</t>
   </si>
@@ -210,6 +207,9 @@
   </si>
   <si>
     <t>Altonomy</t>
+  </si>
+  <si>
+    <t>FIREFOX</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -725,7 +725,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -769,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -822,17 +822,17 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.5">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -843,10 +843,10 @@
     </row>
     <row r="15" spans="1:5" ht="15.5">
       <c r="A15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -854,7 +854,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.5">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.5">
       <c r="A17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>5</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.5">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.5">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -905,10 +905,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.5">
       <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -916,20 +916,20 @@
     </row>
     <row r="22" spans="1:7" ht="46.5">
       <c r="A22" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.5">
       <c r="A23" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.5">
       <c r="A24" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.5">
       <c r="A25" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.5">
       <c r="A26" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
@@ -965,7 +965,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.5">
       <c r="A27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -976,10 +976,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.5">
       <c r="A28" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -987,20 +987,20 @@
     </row>
     <row r="29" spans="1:7" ht="46.5">
       <c r="A29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.5">
       <c r="A30" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="3"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.5">
       <c r="A31" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="3"/>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.5">
       <c r="A32" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.5">
       <c r="A33" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.5">
       <c r="A35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1052,20 +1052,20 @@
     </row>
     <row r="36" spans="1:5" ht="46.5">
       <c r="A36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.5">
       <c r="A37" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.5">
       <c r="A38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="3"/>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.5">
       <c r="A39" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.5">
       <c r="A40" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="3"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.5">
       <c r="A41" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="3"/>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.5">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.5">
       <c r="A44" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="17">
         <v>10</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="45" spans="1:5" ht="15.5">
       <c r="A45" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="46" spans="1:5" ht="15.5">
       <c r="A46" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1162,7 +1162,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.5">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="51" spans="1:5" ht="15.5">
       <c r="A51" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1204,10 +1204,10 @@
     </row>
     <row r="52" spans="1:5" ht="15.5">
       <c r="A52" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="53" spans="1:5" ht="15.5">
       <c r="A53" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harjeet Singh\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A415E0C-B936-405F-9CA8-F462F1595BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC8064-0197-427C-9B3F-70D161EA5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <t>Altonomy</t>
   </si>
   <si>
-    <t>FIREFOX</t>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harjeet Singh\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arjun Diwan\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC8064-0197-427C-9B3F-70D161EA5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806EE156-32A3-4D2B-AE5F-2455D2FB217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arjun Diwan\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harjeet Singh\Documents\GitHub\sg-altonomy-qa\src\test\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806EE156-32A3-4D2B-AE5F-2455D2FB217F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A769B-EA95-40AD-B902-CCF99399D4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Tx-Automate: SETTINGS</t>
   </si>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1002,7 +1002,9 @@
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1011,7 +1013,9 @@
       <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="10"/>
@@ -1019,6 +1023,9 @@
     <row r="32" spans="1:7" ht="15.5">
       <c r="A32" s="11" t="s">
         <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1029,7 +1036,9 @@
       <c r="A33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
